--- a/dados/csv/2023/analise_descritiva/dados/sint_resumo_por_mencoes_politica_2023.xlsx
+++ b/dados/csv/2023/analise_descritiva/dados/sint_resumo_por_mencoes_politica_2023.xlsx
@@ -34,7 +34,7 @@
     <t>taxa_sucesso</t>
   </si>
   <si>
-    <t>valor_sucesso</t>
+    <t>arrecadado_sucesso</t>
   </si>
   <si>
     <t>media_sucesso</t>

--- a/dados/csv/2023/analise_descritiva/dados/sint_resumo_por_mencoes_politica_2023.xlsx
+++ b/dados/csv/2023/analise_descritiva/dados/sint_resumo_por_mencoes_politica_2023.xlsx
@@ -483,10 +483,10 @@
         <v>676</v>
       </c>
       <c r="E2" s="1">
-        <v>0.8202247191011236</v>
+        <v>82.02247191011236</v>
       </c>
       <c r="F2" s="1">
-        <v>0.617351598173516</v>
+        <v>61.7351598173516</v>
       </c>
       <c r="G2" s="2">
         <v>19080546.63745563</v>
@@ -518,10 +518,10 @@
         <v>154</v>
       </c>
       <c r="E3" s="1">
-        <v>0.1797752808988764</v>
+        <v>17.97752808988764</v>
       </c>
       <c r="F3" s="1">
-        <v>0.6416666666666667</v>
+        <v>64.16666666666667</v>
       </c>
       <c r="G3" s="2">
         <v>4982733.189867401</v>
@@ -553,10 +553,10 @@
         <v>1032</v>
       </c>
       <c r="E4" s="1">
-        <v>0.7554495912806539</v>
+        <v>75.54495912806539</v>
       </c>
       <c r="F4" s="1">
-        <v>0.9305680793507665</v>
+        <v>93.05680793507665</v>
       </c>
       <c r="G4" s="2">
         <v>13033206.05942931</v>
@@ -588,10 +588,10 @@
         <v>351</v>
       </c>
       <c r="E5" s="1">
-        <v>0.2445504087193461</v>
+        <v>24.45504087193461</v>
       </c>
       <c r="F5" s="1">
-        <v>0.9777158774373259</v>
+        <v>97.7715877437326</v>
       </c>
       <c r="G5" s="2">
         <v>5328925.878129791</v>
@@ -623,10 +623,10 @@
         <v>128</v>
       </c>
       <c r="E6" s="1">
-        <v>0.9064327485380117</v>
+        <v>90.64327485380117</v>
       </c>
       <c r="F6" s="1">
-        <v>0.2064516129032258</v>
+        <v>20.64516129032258</v>
       </c>
       <c r="G6" s="2">
         <v>33225.36459550618</v>
@@ -658,10 +658,10 @@
         <v>24</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0935672514619883</v>
+        <v>9.35672514619883</v>
       </c>
       <c r="F7" s="1">
-        <v>0.375</v>
+        <v>37.5</v>
       </c>
       <c r="G7" s="2">
         <v>9961.593159278618</v>

--- a/dados/csv/2023/analise_descritiva/dados/sint_resumo_por_mencoes_politica_2023.xlsx
+++ b/dados/csv/2023/analise_descritiva/dados/sint_resumo_por_mencoes_politica_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>geral_modalidade</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>max_sucesso</t>
+  </si>
+  <si>
+    <t>apoio_medio</t>
+  </si>
+  <si>
+    <t>contribuicoes</t>
+  </si>
+  <si>
+    <t>media_contribuicoes</t>
   </si>
   <si>
     <t>aon</t>
@@ -419,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -434,7 +443,7 @@
     <col min="11" max="11" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -468,10 +477,19 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
@@ -503,10 +521,19 @@
       <c r="K2" s="2">
         <v>679297.6600721752</v>
       </c>
+      <c r="L2">
+        <v>90.1471541030692</v>
+      </c>
+      <c r="M2">
+        <v>211660</v>
+      </c>
+      <c r="N2">
+        <v>313.1065088757396</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -538,10 +565,19 @@
       <c r="K3" s="2">
         <v>215281.2939270826</v>
       </c>
+      <c r="L3">
+        <v>96.01937043276359</v>
+      </c>
+      <c r="M3">
+        <v>51893</v>
+      </c>
+      <c r="N3">
+        <v>336.9675324675325</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
@@ -573,10 +609,19 @@
       <c r="K4" s="2">
         <v>708972.7845446636</v>
       </c>
+      <c r="L4">
+        <v>88.30982863725519</v>
+      </c>
+      <c r="M4">
+        <v>147585</v>
+      </c>
+      <c r="N4">
+        <v>143.0087209302326</v>
+      </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -608,10 +653,19 @@
       <c r="K5" s="2">
         <v>157001.7996621037</v>
       </c>
+      <c r="L5">
+        <v>95.05584770392593</v>
+      </c>
+      <c r="M5">
+        <v>56061</v>
+      </c>
+      <c r="N5">
+        <v>159.7179487179487</v>
+      </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -643,10 +697,19 @@
       <c r="K6" s="2">
         <v>3475.049171548047</v>
       </c>
+      <c r="L6">
+        <v>17.70131305034959</v>
+      </c>
+      <c r="M6">
+        <v>1877</v>
+      </c>
+      <c r="N6">
+        <v>14.6640625</v>
+      </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -677,6 +740,15 @@
       </c>
       <c r="K7" s="2">
         <v>5087.076865717208</v>
+      </c>
+      <c r="L7">
+        <v>30.09544761111365</v>
+      </c>
+      <c r="M7">
+        <v>331</v>
+      </c>
+      <c r="N7">
+        <v>13.79166666666667</v>
       </c>
     </row>
   </sheetData>
